--- a/evaluation/results/one_svm/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_5/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.3723958333333333</v>
       </c>
       <c r="H2">
-        <v>0.6430577849117175</v>
+        <v>0.795545746388443</v>
       </c>
       <c r="I2">
         <v>11</v>

--- a/evaluation/results/one_svm/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8683274021352313</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="C2">
-        <v>0.1617647058823529</v>
+        <v>0.06958762886597938</v>
       </c>
       <c r="D2">
-        <v>0.3928571428571428</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E2">
-        <v>0.2291666666666667</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="F2">
-        <v>0.3055555555555556</v>
+        <v>0.27</v>
       </c>
       <c r="G2">
-        <v>0.3723958333333333</v>
+        <v>0.6452205882352942</v>
       </c>
       <c r="H2">
-        <v>0.795545746388443</v>
+        <v>0.795211342964152</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>361</v>
       </c>
       <c r="K2">
-        <v>477</v>
+        <v>173</v>
       </c>
       <c r="L2">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9655870445344129</v>
+        <v>0.9942528735632183</v>
       </c>
       <c r="C2">
-        <v>0.8932584269662921</v>
+        <v>0.3239700374531835</v>
       </c>
       <c r="D2">
-        <v>0.9280155642023347</v>
+        <v>0.4887005649717514</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.1617647058823529</v>
+        <v>0.06958762886597938</v>
       </c>
       <c r="C3">
-        <v>0.3928571428571428</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D3">
-        <v>0.2291666666666667</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8683274021352313</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="C4">
-        <v>0.8683274021352313</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="D4">
-        <v>0.8683274021352313</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="E4">
-        <v>0.8683274021352313</v>
+        <v>0.3558718861209965</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5636758752083829</v>
+        <v>0.5319202512145988</v>
       </c>
       <c r="C5">
-        <v>0.6430577849117175</v>
+        <v>0.6441278758694489</v>
       </c>
       <c r="D5">
-        <v>0.5785911154345007</v>
+        <v>0.3092541286397218</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9255389564876911</v>
+        <v>0.9481841425106868</v>
       </c>
       <c r="C6">
-        <v>0.8683274021352313</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="D6">
-        <v>0.893197469663191</v>
+        <v>0.4708197812803036</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>477</v>
+        <v>173</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
